--- a/Project/AutoClick/Sources/FunctionDataBase.xlsx
+++ b/Project/AutoClick/Sources/FunctionDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NowWorks_Git\study\Project\AutoClick\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC1B20D7-0FD6-41A6-ACED-712F8081F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D56479-41EB-4942-905B-090FDE1587DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{A6539ED8-6CD0-46D8-AE22-199C752A68BF}"/>
+    <workbookView xWindow="5295" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{A6539ED8-6CD0-46D8-AE22-199C752A68BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1"/>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve"> true</t>
-  </si>
-  <si>
-    <t>Judge</t>
   </si>
   <si>
     <t>condition_list</t>
@@ -216,6 +213,36 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Judge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"動作":"day1&lt;=day2&lt;=day3の比較結果をresultで返す。"
+"Result" : {
+"result":"比較結果"
+・</t>
+    <rPh sb="1" eb="3">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>ヒカクケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -584,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A04745-3262-4FC5-B876-548EF0CE37A8}">
-  <dimension ref="B2:H46"/>
+  <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -595,648 +622,628 @@
     <col min="1" max="1" width="2.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="84.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="84.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:9" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
       <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" t="s">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="I46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G6:G59">
-    <sortCondition ref="G6:G59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H6:H59">
+    <sortCondition ref="H6:H59"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
